--- a/src/services/excel/probar.xlsx
+++ b/src/services/excel/probar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosdiaz/Desktop/Curso_Backend_Microservicios/services/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosdiaz/Desktop/Curso_Backend_Microservicios/src/services/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD99ECCA-CF09-364D-9A00-0963F1385D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DB8403-A460-2944-B349-5CE038775519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A1446CEF-8D9A-4BFD-B001-4CA3782B6F8F}"/>
+    <workbookView xWindow="6520" yWindow="820" windowWidth="28800" windowHeight="16120" xr2:uid="{A1446CEF-8D9A-4BFD-B001-4CA3782B6F8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="278">
   <si>
     <t>Department</t>
   </si>
@@ -108,6 +108,768 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>2022-04-06</t>
+  </si>
+  <si>
+    <t>07:54</t>
+  </si>
+  <si>
+    <t>13:53</t>
+  </si>
+  <si>
+    <t>17:04</t>
+  </si>
+  <si>
+    <t>2022-04-07</t>
+  </si>
+  <si>
+    <t>08:05</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>2022-04-08</t>
+  </si>
+  <si>
+    <t>10:53</t>
+  </si>
+  <si>
+    <t>2022-04-18</t>
+  </si>
+  <si>
+    <t>08:09</t>
+  </si>
+  <si>
+    <t>13:55</t>
+  </si>
+  <si>
+    <t>17:01</t>
+  </si>
+  <si>
+    <t>2022-04-19</t>
+  </si>
+  <si>
+    <t>08:04</t>
+  </si>
+  <si>
+    <t>14:05</t>
+  </si>
+  <si>
+    <t>16:47</t>
+  </si>
+  <si>
+    <t>2022-04-20</t>
+  </si>
+  <si>
+    <t>08:12</t>
+  </si>
+  <si>
+    <t>13:48</t>
+  </si>
+  <si>
+    <t>17:02</t>
+  </si>
+  <si>
+    <t>2022-04-21</t>
+  </si>
+  <si>
+    <t>08:01</t>
+  </si>
+  <si>
+    <t>11:55</t>
+  </si>
+  <si>
+    <t>16:26</t>
+  </si>
+  <si>
+    <t>2022-04-26</t>
+  </si>
+  <si>
+    <t>08:03</t>
+  </si>
+  <si>
+    <t>13:52</t>
+  </si>
+  <si>
+    <t>2022-04-27</t>
+  </si>
+  <si>
+    <t>07:50</t>
+  </si>
+  <si>
+    <t>2022-04-28</t>
+  </si>
+  <si>
+    <t>12:03</t>
+  </si>
+  <si>
+    <t>13:51</t>
+  </si>
+  <si>
+    <t>2022-04-29</t>
+  </si>
+  <si>
+    <t>08:08</t>
+  </si>
+  <si>
+    <t>11:33</t>
+  </si>
+  <si>
+    <t>2022-05-03</t>
+  </si>
+  <si>
+    <t>07:56</t>
+  </si>
+  <si>
+    <t>12:06</t>
+  </si>
+  <si>
+    <t>14:16</t>
+  </si>
+  <si>
+    <t>2022-05-04</t>
+  </si>
+  <si>
+    <t>08:02</t>
+  </si>
+  <si>
+    <t>14:08</t>
+  </si>
+  <si>
+    <t>2022-05-05</t>
+  </si>
+  <si>
+    <t>07:46</t>
+  </si>
+  <si>
+    <t>17:05</t>
+  </si>
+  <si>
+    <t>2022-05-06</t>
+  </si>
+  <si>
+    <t>12:26</t>
+  </si>
+  <si>
+    <t>2022-05-09</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>07:59</t>
+  </si>
+  <si>
+    <t>13:50</t>
+  </si>
+  <si>
+    <t>2022-05-10</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>12:05</t>
+  </si>
+  <si>
+    <t>13:59</t>
+  </si>
+  <si>
+    <t>2022-05-11</t>
+  </si>
+  <si>
+    <t>14:11</t>
+  </si>
+  <si>
+    <t>2022-05-12</t>
+  </si>
+  <si>
+    <t>2022-05-13</t>
+  </si>
+  <si>
+    <t>08:14</t>
+  </si>
+  <si>
+    <t>12:12</t>
+  </si>
+  <si>
+    <t>2022-05-14</t>
+  </si>
+  <si>
+    <t>2022-05-15</t>
+  </si>
+  <si>
+    <t>2022-05-16</t>
+  </si>
+  <si>
+    <t>17:08</t>
+  </si>
+  <si>
+    <t>2022-05-17</t>
+  </si>
+  <si>
+    <t>13:58</t>
+  </si>
+  <si>
+    <t>16:57</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
+    <t>2022-05-19</t>
+  </si>
+  <si>
+    <t>07:58</t>
+  </si>
+  <si>
+    <t>2022-05-20</t>
+  </si>
+  <si>
+    <t>2022-05-24</t>
+  </si>
+  <si>
+    <t>11:58</t>
+  </si>
+  <si>
+    <t>2022-05-25</t>
+  </si>
+  <si>
+    <t>07:47</t>
+  </si>
+  <si>
+    <t>13:57</t>
+  </si>
+  <si>
+    <t>16:38</t>
+  </si>
+  <si>
+    <t>2022-05-26</t>
+  </si>
+  <si>
+    <t>2022-05-27</t>
+  </si>
+  <si>
+    <t>08:47</t>
+  </si>
+  <si>
+    <t>11:05</t>
+  </si>
+  <si>
+    <t>2022-05-30</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>12:11</t>
+  </si>
+  <si>
+    <t>2022-06-01</t>
+  </si>
+  <si>
+    <t>08:13</t>
+  </si>
+  <si>
+    <t>17:03</t>
+  </si>
+  <si>
+    <t>2022-06-02</t>
+  </si>
+  <si>
+    <t>2022-06-03</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>11:43</t>
+  </si>
+  <si>
+    <t>2022-06-06</t>
+  </si>
+  <si>
+    <t>08:50</t>
+  </si>
+  <si>
+    <t>2022-06-07</t>
+  </si>
+  <si>
+    <t>2022-06-08</t>
+  </si>
+  <si>
+    <t>2022-06-09</t>
+  </si>
+  <si>
+    <t>2022-06-10</t>
+  </si>
+  <si>
+    <t>08:44</t>
+  </si>
+  <si>
+    <t>2022-06-13</t>
+  </si>
+  <si>
+    <t>08:11</t>
+  </si>
+  <si>
+    <t>14:14</t>
+  </si>
+  <si>
+    <t>2022-06-14</t>
+  </si>
+  <si>
+    <t>2022-06-20</t>
+  </si>
+  <si>
+    <t>07:52</t>
+  </si>
+  <si>
+    <t>13:54</t>
+  </si>
+  <si>
+    <t>2022-06-21</t>
+  </si>
+  <si>
+    <t>11:59</t>
+  </si>
+  <si>
+    <t>14:01</t>
+  </si>
+  <si>
+    <t>2022-06-22</t>
+  </si>
+  <si>
+    <t>08:21</t>
+  </si>
+  <si>
+    <t>2022-06-23</t>
+  </si>
+  <si>
+    <t>08:06</t>
+  </si>
+  <si>
+    <t>11:57</t>
+  </si>
+  <si>
+    <t>14:02</t>
+  </si>
+  <si>
+    <t>16:58</t>
+  </si>
+  <si>
+    <t>2022-06-27</t>
+  </si>
+  <si>
+    <t>2022-06-28</t>
+  </si>
+  <si>
+    <t>2022-06-29</t>
+  </si>
+  <si>
+    <t>07:57</t>
+  </si>
+  <si>
+    <t>16:54</t>
+  </si>
+  <si>
+    <t>2022-07-04</t>
+  </si>
+  <si>
+    <t>2022-07-05</t>
+  </si>
+  <si>
+    <t>2022-07-06</t>
+  </si>
+  <si>
+    <t>2022-07-07</t>
+  </si>
+  <si>
+    <t>08:10</t>
+  </si>
+  <si>
+    <t>13:42</t>
+  </si>
+  <si>
+    <t>16:36</t>
+  </si>
+  <si>
+    <t>2022-07-11</t>
+  </si>
+  <si>
+    <t>2022-07-12</t>
+  </si>
+  <si>
+    <t>2022-07-13</t>
+  </si>
+  <si>
+    <t>2022-07-14</t>
+  </si>
+  <si>
+    <t>11:54</t>
+  </si>
+  <si>
+    <t>2022-07-18</t>
+  </si>
+  <si>
+    <t>08:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0005              </t>
+  </si>
+  <si>
+    <t>Miguelina Contreras</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>13:46</t>
+  </si>
+  <si>
+    <t>17:40</t>
+  </si>
+  <si>
+    <t>07:13</t>
+  </si>
+  <si>
+    <t>12:31</t>
+  </si>
+  <si>
+    <t>17:50</t>
+  </si>
+  <si>
+    <t>07:16</t>
+  </si>
+  <si>
+    <t>13:44</t>
+  </si>
+  <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>07:11</t>
+  </si>
+  <si>
+    <t>13:41</t>
+  </si>
+  <si>
+    <t>17:36</t>
+  </si>
+  <si>
+    <t>12:07</t>
+  </si>
+  <si>
+    <t>14:06</t>
+  </si>
+  <si>
+    <t>2022-04-11</t>
+  </si>
+  <si>
+    <t>11:07</t>
+  </si>
+  <si>
+    <t>16:41</t>
+  </si>
+  <si>
+    <t>2022-04-12</t>
+  </si>
+  <si>
+    <t>07:40</t>
+  </si>
+  <si>
+    <t>11:02</t>
+  </si>
+  <si>
+    <t>07:37</t>
+  </si>
+  <si>
+    <t>12:34</t>
+  </si>
+  <si>
+    <t>17:35</t>
+  </si>
+  <si>
+    <t>07:27</t>
+  </si>
+  <si>
+    <t>12:25</t>
+  </si>
+  <si>
+    <t>13:45</t>
+  </si>
+  <si>
+    <t>07:23</t>
+  </si>
+  <si>
+    <t>17:43</t>
+  </si>
+  <si>
+    <t>12:35</t>
+  </si>
+  <si>
+    <t>2022-04-22</t>
+  </si>
+  <si>
+    <t>07:42</t>
+  </si>
+  <si>
+    <t>2022-04-25</t>
+  </si>
+  <si>
+    <t>10:35</t>
+  </si>
+  <si>
+    <t>07:26</t>
+  </si>
+  <si>
+    <t>12:13</t>
+  </si>
+  <si>
+    <t>17:29</t>
+  </si>
+  <si>
+    <t>07:09</t>
+  </si>
+  <si>
+    <t>13:08</t>
+  </si>
+  <si>
+    <t>17:46</t>
+  </si>
+  <si>
+    <t>07:19</t>
+  </si>
+  <si>
+    <t>12:22</t>
+  </si>
+  <si>
+    <t>13:49</t>
+  </si>
+  <si>
+    <t>17:42</t>
+  </si>
+  <si>
+    <t>18:03</t>
+  </si>
+  <si>
+    <t>07:25</t>
+  </si>
+  <si>
+    <t>12:16</t>
+  </si>
+  <si>
+    <t>17:39</t>
+  </si>
+  <si>
+    <t>07:18</t>
+  </si>
+  <si>
+    <t>17:49</t>
+  </si>
+  <si>
+    <t>17:47</t>
+  </si>
+  <si>
+    <t>07:10</t>
+  </si>
+  <si>
+    <t>12:39</t>
+  </si>
+  <si>
+    <t>12:40</t>
+  </si>
+  <si>
+    <t>07:14</t>
+  </si>
+  <si>
+    <t>17:22</t>
+  </si>
+  <si>
+    <t>07:12</t>
+  </si>
+  <si>
+    <t>17:26</t>
+  </si>
+  <si>
+    <t>17:45</t>
+  </si>
+  <si>
+    <t>07:30</t>
+  </si>
+  <si>
+    <t>12:56</t>
+  </si>
+  <si>
+    <t>07:41</t>
+  </si>
+  <si>
+    <t>12:41</t>
+  </si>
+  <si>
+    <t>13:43</t>
+  </si>
+  <si>
+    <t>17:55</t>
+  </si>
+  <si>
+    <t>07:17</t>
+  </si>
+  <si>
+    <t>12:45</t>
+  </si>
+  <si>
+    <t>18:07</t>
+  </si>
+  <si>
+    <t>07:21</t>
+  </si>
+  <si>
+    <t>12:20</t>
+  </si>
+  <si>
+    <t>17:58</t>
+  </si>
+  <si>
+    <t>07:15</t>
+  </si>
+  <si>
+    <t>17:51</t>
+  </si>
+  <si>
+    <t>07:06</t>
+  </si>
+  <si>
+    <t>12:29</t>
+  </si>
+  <si>
+    <t>2022-06-24</t>
+  </si>
+  <si>
+    <t>07:39</t>
+  </si>
+  <si>
+    <t>17:34</t>
+  </si>
+  <si>
+    <t>17:41</t>
+  </si>
+  <si>
+    <t>17:38</t>
+  </si>
+  <si>
+    <t>17:28</t>
+  </si>
+  <si>
+    <t>12:27</t>
+  </si>
+  <si>
+    <t>17:14</t>
+  </si>
+  <si>
+    <t>07:55</t>
+  </si>
+  <si>
+    <t>12:21</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>16:56</t>
+  </si>
+  <si>
+    <t>12:19</t>
+  </si>
+  <si>
+    <t>2022-07-15</t>
+  </si>
+  <si>
+    <t>12:14</t>
+  </si>
+  <si>
+    <t>13:26</t>
+  </si>
+  <si>
+    <t>17:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0006              </t>
+  </si>
+  <si>
+    <t>Tomasina Candelario</t>
+  </si>
+  <si>
+    <t>17:13</t>
+  </si>
+  <si>
+    <t>17:18</t>
+  </si>
+  <si>
+    <t>17:15</t>
+  </si>
+  <si>
+    <t>17:25</t>
+  </si>
+  <si>
+    <t>14:03</t>
+  </si>
+  <si>
+    <t>17:07</t>
+  </si>
+  <si>
+    <t>14:04</t>
+  </si>
+  <si>
+    <t>17:10</t>
+  </si>
+  <si>
+    <t>14:20</t>
+  </si>
+  <si>
+    <t>2022-05-23</t>
+  </si>
+  <si>
+    <t>16:34</t>
+  </si>
+  <si>
+    <t>14:09</t>
+  </si>
+  <si>
+    <t>16:43</t>
+  </si>
+  <si>
+    <t>17:09</t>
+  </si>
+  <si>
+    <t>14:26</t>
+  </si>
+  <si>
+    <t>14:21</t>
+  </si>
+  <si>
+    <t>14:18</t>
+  </si>
+  <si>
+    <t>14:17</t>
+  </si>
+  <si>
+    <t>14:15</t>
+  </si>
+  <si>
+    <t>16:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0007              </t>
+  </si>
+  <si>
+    <t>Sol Margarita</t>
   </si>
 </sst>
 </file>
@@ -149,9 +911,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6E4B80-30B3-4440-8006-97A1477254AA}">
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -561,8 +1322,3677 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G68" s="1"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" t="s">
+        <v>102</v>
+      </c>
+      <c r="I32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s">
+        <v>121</v>
+      </c>
+      <c r="E42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" t="s">
+        <v>127</v>
+      </c>
+      <c r="H45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" t="s">
+        <v>131</v>
+      </c>
+      <c r="H47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" t="s">
+        <v>133</v>
+      </c>
+      <c r="G48" t="s">
+        <v>134</v>
+      </c>
+      <c r="H48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" t="s">
+        <v>138</v>
+      </c>
+      <c r="F50" t="s">
+        <v>139</v>
+      </c>
+      <c r="G50" t="s">
+        <v>140</v>
+      </c>
+      <c r="H50" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" t="s">
+        <v>131</v>
+      </c>
+      <c r="H52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s">
+        <v>144</v>
+      </c>
+      <c r="E53" t="s">
+        <v>145</v>
+      </c>
+      <c r="F53" t="s">
+        <v>139</v>
+      </c>
+      <c r="G53" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" t="s">
+        <v>126</v>
+      </c>
+      <c r="F54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" t="s">
+        <v>148</v>
+      </c>
+      <c r="E55" t="s">
+        <v>145</v>
+      </c>
+      <c r="F55" t="s">
+        <v>99</v>
+      </c>
+      <c r="G55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" t="s">
+        <v>149</v>
+      </c>
+      <c r="E56" t="s">
+        <v>96</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s">
+        <v>92</v>
+      </c>
+      <c r="H56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" t="s">
+        <v>150</v>
+      </c>
+      <c r="E57" t="s">
+        <v>151</v>
+      </c>
+      <c r="F57" t="s">
+        <v>56</v>
+      </c>
+      <c r="G57" t="s">
+        <v>152</v>
+      </c>
+      <c r="H57" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s">
+        <v>155</v>
+      </c>
+      <c r="E59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" t="s">
+        <v>156</v>
+      </c>
+      <c r="E60" t="s">
+        <v>39</v>
+      </c>
+      <c r="F60" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s">
+        <v>159</v>
+      </c>
+      <c r="E62" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>163</v>
+      </c>
+      <c r="F63" t="s">
+        <v>164</v>
+      </c>
+      <c r="G63" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" t="s">
+        <v>166</v>
+      </c>
+      <c r="F64" t="s">
+        <v>167</v>
+      </c>
+      <c r="G64" t="s">
+        <v>164</v>
+      </c>
+      <c r="H64" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" t="s">
+        <v>162</v>
+      </c>
+      <c r="D65" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F65" t="s">
+        <v>163</v>
+      </c>
+      <c r="G65" t="s">
+        <v>170</v>
+      </c>
+      <c r="H65" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" t="s">
+        <v>162</v>
+      </c>
+      <c r="D66" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" t="s">
+        <v>172</v>
+      </c>
+      <c r="F66" t="s">
+        <v>173</v>
+      </c>
+      <c r="G66" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" t="s">
+        <v>162</v>
+      </c>
+      <c r="D67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" t="s">
+        <v>101</v>
+      </c>
+      <c r="F67" t="s">
+        <v>175</v>
+      </c>
+      <c r="G67" t="s">
+        <v>176</v>
+      </c>
+      <c r="H67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" t="s">
+        <v>177</v>
+      </c>
+      <c r="E68" t="s">
+        <v>62</v>
+      </c>
+      <c r="F68" t="s">
+        <v>178</v>
+      </c>
+      <c r="G68" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" t="s">
+        <v>180</v>
+      </c>
+      <c r="E69" t="s">
+        <v>181</v>
+      </c>
+      <c r="F69" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" t="s">
+        <v>183</v>
+      </c>
+      <c r="F70" t="s">
+        <v>184</v>
+      </c>
+      <c r="G70" t="s">
+        <v>164</v>
+      </c>
+      <c r="H70" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" t="s">
+        <v>186</v>
+      </c>
+      <c r="F71" t="s">
+        <v>187</v>
+      </c>
+      <c r="G71" t="s">
+        <v>188</v>
+      </c>
+      <c r="H71" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>161</v>
+      </c>
+      <c r="C72" t="s">
+        <v>162</v>
+      </c>
+      <c r="D72" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" t="s">
+        <v>189</v>
+      </c>
+      <c r="F72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" t="s">
+        <v>162</v>
+      </c>
+      <c r="D73" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73" t="s">
+        <v>189</v>
+      </c>
+      <c r="F73" t="s">
+        <v>191</v>
+      </c>
+      <c r="G73" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" t="s">
+        <v>162</v>
+      </c>
+      <c r="D74" t="s">
+        <v>192</v>
+      </c>
+      <c r="E74" t="s">
+        <v>193</v>
+      </c>
+      <c r="F74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" t="s">
+        <v>162</v>
+      </c>
+      <c r="D75" t="s">
+        <v>194</v>
+      </c>
+      <c r="E75" t="s">
+        <v>62</v>
+      </c>
+      <c r="F75" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" t="s">
+        <v>162</v>
+      </c>
+      <c r="D76" t="s">
+        <v>50</v>
+      </c>
+      <c r="E76" t="s">
+        <v>196</v>
+      </c>
+      <c r="F76" t="s">
+        <v>197</v>
+      </c>
+      <c r="G76" t="s">
+        <v>76</v>
+      </c>
+      <c r="H76" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" t="s">
+        <v>53</v>
+      </c>
+      <c r="E77" t="s">
+        <v>199</v>
+      </c>
+      <c r="F77" t="s">
+        <v>200</v>
+      </c>
+      <c r="G77" t="s">
+        <v>76</v>
+      </c>
+      <c r="H77" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" t="s">
+        <v>55</v>
+      </c>
+      <c r="E78" t="s">
+        <v>202</v>
+      </c>
+      <c r="F78" t="s">
+        <v>203</v>
+      </c>
+      <c r="G78" t="s">
+        <v>204</v>
+      </c>
+      <c r="H78" t="s">
+        <v>205</v>
+      </c>
+      <c r="I78" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" t="s">
+        <v>61</v>
+      </c>
+      <c r="E79" t="s">
+        <v>207</v>
+      </c>
+      <c r="F79" t="s">
+        <v>208</v>
+      </c>
+      <c r="G79" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="s">
+        <v>162</v>
+      </c>
+      <c r="D80" t="s">
+        <v>65</v>
+      </c>
+      <c r="E80" t="s">
+        <v>210</v>
+      </c>
+      <c r="F80" t="s">
+        <v>203</v>
+      </c>
+      <c r="G80" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" t="s">
+        <v>162</v>
+      </c>
+      <c r="D81" t="s">
+        <v>68</v>
+      </c>
+      <c r="E81" t="s">
+        <v>199</v>
+      </c>
+      <c r="F81" t="s">
+        <v>163</v>
+      </c>
+      <c r="G81" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82" t="s">
+        <v>162</v>
+      </c>
+      <c r="D82" t="s">
+        <v>71</v>
+      </c>
+      <c r="E82" t="s">
+        <v>213</v>
+      </c>
+      <c r="F82" t="s">
+        <v>214</v>
+      </c>
+      <c r="G82" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D83" t="s">
+        <v>73</v>
+      </c>
+      <c r="E83" t="s">
+        <v>74</v>
+      </c>
+      <c r="F83" t="s">
+        <v>216</v>
+      </c>
+      <c r="G83" t="s">
+        <v>164</v>
+      </c>
+      <c r="H83" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" t="s">
+        <v>77</v>
+      </c>
+      <c r="E84" t="s">
+        <v>74</v>
+      </c>
+      <c r="F84" t="s">
+        <v>210</v>
+      </c>
+      <c r="G84" t="s">
+        <v>72</v>
+      </c>
+      <c r="H84" t="s">
+        <v>170</v>
+      </c>
+      <c r="I84" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" t="s">
+        <v>161</v>
+      </c>
+      <c r="C85" t="s">
+        <v>162</v>
+      </c>
+      <c r="D85" t="s">
+        <v>81</v>
+      </c>
+      <c r="E85" t="s">
+        <v>74</v>
+      </c>
+      <c r="F85" t="s">
+        <v>218</v>
+      </c>
+      <c r="G85" t="s">
+        <v>170</v>
+      </c>
+      <c r="H85" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" t="s">
+        <v>162</v>
+      </c>
+      <c r="D86" t="s">
+        <v>83</v>
+      </c>
+      <c r="E86" t="s">
+        <v>74</v>
+      </c>
+      <c r="F86" t="s">
+        <v>210</v>
+      </c>
+      <c r="G86" t="s">
+        <v>86</v>
+      </c>
+      <c r="H86" t="s">
+        <v>204</v>
+      </c>
+      <c r="I86" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" t="s">
+        <v>161</v>
+      </c>
+      <c r="C87" t="s">
+        <v>162</v>
+      </c>
+      <c r="D87" t="s">
+        <v>84</v>
+      </c>
+      <c r="E87" t="s">
+        <v>74</v>
+      </c>
+      <c r="F87" t="s">
+        <v>221</v>
+      </c>
+      <c r="G87" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" t="s">
+        <v>161</v>
+      </c>
+      <c r="C88" t="s">
+        <v>162</v>
+      </c>
+      <c r="D88" t="s">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" t="s">
+        <v>161</v>
+      </c>
+      <c r="C89" t="s">
+        <v>162</v>
+      </c>
+      <c r="D89" t="s">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" t="s">
+        <v>161</v>
+      </c>
+      <c r="C90" t="s">
+        <v>162</v>
+      </c>
+      <c r="D90" t="s">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" t="s">
+        <v>161</v>
+      </c>
+      <c r="C91" t="s">
+        <v>162</v>
+      </c>
+      <c r="D91" t="s">
+        <v>91</v>
+      </c>
+      <c r="E91" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" t="s">
+        <v>161</v>
+      </c>
+      <c r="C92" t="s">
+        <v>162</v>
+      </c>
+      <c r="D92" t="s">
+        <v>94</v>
+      </c>
+      <c r="E92" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93" t="s">
+        <v>162</v>
+      </c>
+      <c r="D93" t="s">
+        <v>95</v>
+      </c>
+      <c r="E93" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" t="s">
+        <v>161</v>
+      </c>
+      <c r="C94" t="s">
+        <v>162</v>
+      </c>
+      <c r="D94" t="s">
+        <v>97</v>
+      </c>
+      <c r="E94" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" t="s">
+        <v>161</v>
+      </c>
+      <c r="C95" t="s">
+        <v>162</v>
+      </c>
+      <c r="D95" t="s">
+        <v>100</v>
+      </c>
+      <c r="E95" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" t="s">
+        <v>161</v>
+      </c>
+      <c r="C96" t="s">
+        <v>162</v>
+      </c>
+      <c r="D96" t="s">
+        <v>114</v>
+      </c>
+      <c r="E96" t="s">
+        <v>223</v>
+      </c>
+      <c r="F96" t="s">
+        <v>184</v>
+      </c>
+      <c r="G96" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" t="s">
+        <v>161</v>
+      </c>
+      <c r="C97" t="s">
+        <v>162</v>
+      </c>
+      <c r="D97" t="s">
+        <v>115</v>
+      </c>
+      <c r="E97" t="s">
+        <v>35</v>
+      </c>
+      <c r="F97" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" t="s">
+        <v>161</v>
+      </c>
+      <c r="C98" t="s">
+        <v>162</v>
+      </c>
+      <c r="D98" t="s">
+        <v>118</v>
+      </c>
+      <c r="E98" t="s">
+        <v>213</v>
+      </c>
+      <c r="F98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" t="s">
+        <v>161</v>
+      </c>
+      <c r="C99" t="s">
+        <v>162</v>
+      </c>
+      <c r="D99" t="s">
+        <v>120</v>
+      </c>
+      <c r="E99" t="s">
+        <v>189</v>
+      </c>
+      <c r="F99" t="s">
+        <v>225</v>
+      </c>
+      <c r="G99" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" t="s">
+        <v>161</v>
+      </c>
+      <c r="C100" t="s">
+        <v>162</v>
+      </c>
+      <c r="D100" t="s">
+        <v>121</v>
+      </c>
+      <c r="E100" t="s">
+        <v>169</v>
+      </c>
+      <c r="F100" t="s">
+        <v>187</v>
+      </c>
+      <c r="G100" t="s">
+        <v>152</v>
+      </c>
+      <c r="H100" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" t="s">
+        <v>161</v>
+      </c>
+      <c r="C101" t="s">
+        <v>162</v>
+      </c>
+      <c r="D101" t="s">
+        <v>122</v>
+      </c>
+      <c r="E101" t="s">
+        <v>202</v>
+      </c>
+      <c r="F101" t="s">
+        <v>110</v>
+      </c>
+      <c r="G101" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" t="s">
+        <v>161</v>
+      </c>
+      <c r="C102" t="s">
+        <v>162</v>
+      </c>
+      <c r="D102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E102" t="s">
+        <v>151</v>
+      </c>
+      <c r="F102" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" t="s">
+        <v>161</v>
+      </c>
+      <c r="C103" t="s">
+        <v>162</v>
+      </c>
+      <c r="D103" t="s">
+        <v>125</v>
+      </c>
+      <c r="E103" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" t="s">
+        <v>161</v>
+      </c>
+      <c r="C104" t="s">
+        <v>162</v>
+      </c>
+      <c r="D104" t="s">
+        <v>128</v>
+      </c>
+      <c r="E104" t="s">
+        <v>172</v>
+      </c>
+      <c r="F104" t="s">
+        <v>228</v>
+      </c>
+      <c r="G104" t="s">
+        <v>225</v>
+      </c>
+      <c r="H104" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" t="s">
+        <v>161</v>
+      </c>
+      <c r="C105" t="s">
+        <v>162</v>
+      </c>
+      <c r="D105" t="s">
+        <v>129</v>
+      </c>
+      <c r="E105" t="s">
+        <v>230</v>
+      </c>
+      <c r="F105" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" t="s">
+        <v>161</v>
+      </c>
+      <c r="C106" t="s">
+        <v>162</v>
+      </c>
+      <c r="D106" t="s">
+        <v>132</v>
+      </c>
+      <c r="E106" t="s">
+        <v>216</v>
+      </c>
+      <c r="F106" t="s">
+        <v>231</v>
+      </c>
+      <c r="G106" t="s">
+        <v>44</v>
+      </c>
+      <c r="H106" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" t="s">
+        <v>161</v>
+      </c>
+      <c r="C107" t="s">
+        <v>162</v>
+      </c>
+      <c r="D107" t="s">
+        <v>135</v>
+      </c>
+      <c r="E107" t="s">
+        <v>233</v>
+      </c>
+      <c r="F107" t="s">
+        <v>201</v>
+      </c>
+      <c r="G107" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" t="s">
+        <v>161</v>
+      </c>
+      <c r="C108" t="s">
+        <v>162</v>
+      </c>
+      <c r="D108" t="s">
+        <v>137</v>
+      </c>
+      <c r="E108" t="s">
+        <v>235</v>
+      </c>
+      <c r="F108" t="s">
+        <v>236</v>
+      </c>
+      <c r="G108" t="s">
+        <v>170</v>
+      </c>
+      <c r="H108" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" t="s">
+        <v>161</v>
+      </c>
+      <c r="C109" t="s">
+        <v>162</v>
+      </c>
+      <c r="D109" t="s">
+        <v>237</v>
+      </c>
+      <c r="E109" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" t="s">
+        <v>161</v>
+      </c>
+      <c r="C110" t="s">
+        <v>162</v>
+      </c>
+      <c r="D110" t="s">
+        <v>142</v>
+      </c>
+      <c r="E110" t="s">
+        <v>230</v>
+      </c>
+      <c r="F110" t="s">
+        <v>197</v>
+      </c>
+      <c r="G110" t="s">
+        <v>225</v>
+      </c>
+      <c r="H110" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" t="s">
+        <v>161</v>
+      </c>
+      <c r="C111" t="s">
+        <v>162</v>
+      </c>
+      <c r="D111" t="s">
+        <v>143</v>
+      </c>
+      <c r="E111" t="s">
+        <v>166</v>
+      </c>
+      <c r="F111" t="s">
+        <v>110</v>
+      </c>
+      <c r="G111" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" t="s">
+        <v>161</v>
+      </c>
+      <c r="C112" t="s">
+        <v>162</v>
+      </c>
+      <c r="D112" t="s">
+        <v>144</v>
+      </c>
+      <c r="E112" t="s">
+        <v>233</v>
+      </c>
+      <c r="F112" t="s">
+        <v>167</v>
+      </c>
+      <c r="G112" t="s">
+        <v>225</v>
+      </c>
+      <c r="H112" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" t="s">
+        <v>161</v>
+      </c>
+      <c r="C113" t="s">
+        <v>162</v>
+      </c>
+      <c r="D113" t="s">
+        <v>147</v>
+      </c>
+      <c r="E113" t="s">
+        <v>227</v>
+      </c>
+      <c r="F113" t="s">
+        <v>225</v>
+      </c>
+      <c r="G113" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" t="s">
+        <v>161</v>
+      </c>
+      <c r="C114" t="s">
+        <v>162</v>
+      </c>
+      <c r="D114" t="s">
+        <v>148</v>
+      </c>
+      <c r="E114" t="s">
+        <v>233</v>
+      </c>
+      <c r="F114" t="s">
+        <v>152</v>
+      </c>
+      <c r="G114" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" t="s">
+        <v>161</v>
+      </c>
+      <c r="C115" t="s">
+        <v>162</v>
+      </c>
+      <c r="D115" t="s">
+        <v>149</v>
+      </c>
+      <c r="E115" t="s">
+        <v>233</v>
+      </c>
+      <c r="F115" t="s">
+        <v>188</v>
+      </c>
+      <c r="G115" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" t="s">
+        <v>161</v>
+      </c>
+      <c r="C116" t="s">
+        <v>162</v>
+      </c>
+      <c r="D116" t="s">
+        <v>150</v>
+      </c>
+      <c r="E116" t="s">
+        <v>227</v>
+      </c>
+      <c r="F116" t="s">
+        <v>243</v>
+      </c>
+      <c r="G116" t="s">
+        <v>152</v>
+      </c>
+      <c r="H116" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" t="s">
+        <v>161</v>
+      </c>
+      <c r="C117" t="s">
+        <v>162</v>
+      </c>
+      <c r="D117" t="s">
+        <v>154</v>
+      </c>
+      <c r="E117" t="s">
+        <v>245</v>
+      </c>
+      <c r="F117" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" t="s">
+        <v>161</v>
+      </c>
+      <c r="C118" t="s">
+        <v>162</v>
+      </c>
+      <c r="D118" t="s">
+        <v>155</v>
+      </c>
+      <c r="E118" t="s">
+        <v>101</v>
+      </c>
+      <c r="F118" t="s">
+        <v>246</v>
+      </c>
+      <c r="G118" t="s">
+        <v>176</v>
+      </c>
+      <c r="H118" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" t="s">
+        <v>161</v>
+      </c>
+      <c r="C119" t="s">
+        <v>162</v>
+      </c>
+      <c r="D119" t="s">
+        <v>156</v>
+      </c>
+      <c r="E119" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" t="s">
+        <v>246</v>
+      </c>
+      <c r="G119" t="s">
+        <v>247</v>
+      </c>
+      <c r="H119" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" t="s">
+        <v>161</v>
+      </c>
+      <c r="C120" t="s">
+        <v>162</v>
+      </c>
+      <c r="D120" t="s">
+        <v>157</v>
+      </c>
+      <c r="E120" t="s">
+        <v>25</v>
+      </c>
+      <c r="F120" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" t="s">
+        <v>161</v>
+      </c>
+      <c r="C121" t="s">
+        <v>162</v>
+      </c>
+      <c r="D121" t="s">
+        <v>250</v>
+      </c>
+      <c r="E121" t="s">
+        <v>78</v>
+      </c>
+      <c r="F121" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" t="s">
+        <v>161</v>
+      </c>
+      <c r="C122" t="s">
+        <v>162</v>
+      </c>
+      <c r="D122" t="s">
+        <v>159</v>
+      </c>
+      <c r="E122" t="s">
+        <v>230</v>
+      </c>
+      <c r="F122" t="s">
+        <v>252</v>
+      </c>
+      <c r="G122" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" t="s">
+        <v>254</v>
+      </c>
+      <c r="C123" t="s">
+        <v>255</v>
+      </c>
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" t="s">
+        <v>40</v>
+      </c>
+      <c r="F123" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" t="s">
+        <v>254</v>
+      </c>
+      <c r="C124" t="s">
+        <v>255</v>
+      </c>
+      <c r="D124" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124" t="s">
+        <v>67</v>
+      </c>
+      <c r="F124" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" t="s">
+        <v>254</v>
+      </c>
+      <c r="C125" t="s">
+        <v>255</v>
+      </c>
+      <c r="D125" t="s">
+        <v>34</v>
+      </c>
+      <c r="E125" t="s">
+        <v>247</v>
+      </c>
+      <c r="F125" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" t="s">
+        <v>254</v>
+      </c>
+      <c r="C126" t="s">
+        <v>255</v>
+      </c>
+      <c r="D126" t="s">
+        <v>42</v>
+      </c>
+      <c r="E126" t="s">
+        <v>67</v>
+      </c>
+      <c r="F126" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" t="s">
+        <v>254</v>
+      </c>
+      <c r="C127" t="s">
+        <v>255</v>
+      </c>
+      <c r="D127" t="s">
+        <v>53</v>
+      </c>
+      <c r="E127" t="s">
+        <v>40</v>
+      </c>
+      <c r="F127" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" t="s">
+        <v>254</v>
+      </c>
+      <c r="C128" t="s">
+        <v>255</v>
+      </c>
+      <c r="D128" t="s">
+        <v>65</v>
+      </c>
+      <c r="E128" t="s">
+        <v>176</v>
+      </c>
+      <c r="F128" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" t="s">
+        <v>254</v>
+      </c>
+      <c r="C129" t="s">
+        <v>255</v>
+      </c>
+      <c r="D129" t="s">
+        <v>73</v>
+      </c>
+      <c r="E129" t="s">
+        <v>74</v>
+      </c>
+      <c r="F129" t="s">
+        <v>260</v>
+      </c>
+      <c r="G129" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" t="s">
+        <v>254</v>
+      </c>
+      <c r="C130" t="s">
+        <v>255</v>
+      </c>
+      <c r="D130" t="s">
+        <v>77</v>
+      </c>
+      <c r="E130" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" t="s">
+        <v>254</v>
+      </c>
+      <c r="C131" t="s">
+        <v>255</v>
+      </c>
+      <c r="D131" t="s">
+        <v>81</v>
+      </c>
+      <c r="E131" t="s">
+        <v>74</v>
+      </c>
+      <c r="F131" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" t="s">
+        <v>254</v>
+      </c>
+      <c r="C132" t="s">
+        <v>255</v>
+      </c>
+      <c r="D132" t="s">
+        <v>83</v>
+      </c>
+      <c r="E132" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" t="s">
+        <v>254</v>
+      </c>
+      <c r="C133" t="s">
+        <v>255</v>
+      </c>
+      <c r="D133" t="s">
+        <v>84</v>
+      </c>
+      <c r="E133" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134" t="s">
+        <v>254</v>
+      </c>
+      <c r="C134" t="s">
+        <v>255</v>
+      </c>
+      <c r="D134" t="s">
+        <v>87</v>
+      </c>
+      <c r="E134" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" t="s">
+        <v>254</v>
+      </c>
+      <c r="C135" t="s">
+        <v>255</v>
+      </c>
+      <c r="D135" t="s">
+        <v>88</v>
+      </c>
+      <c r="E135" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" t="s">
+        <v>254</v>
+      </c>
+      <c r="C136" t="s">
+        <v>255</v>
+      </c>
+      <c r="D136" t="s">
+        <v>89</v>
+      </c>
+      <c r="E136" t="s">
+        <v>74</v>
+      </c>
+      <c r="F136" t="s">
+        <v>262</v>
+      </c>
+      <c r="G136" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" t="s">
+        <v>254</v>
+      </c>
+      <c r="C137" t="s">
+        <v>255</v>
+      </c>
+      <c r="D137" t="s">
+        <v>91</v>
+      </c>
+      <c r="E137" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" t="s">
+        <v>254</v>
+      </c>
+      <c r="C138" t="s">
+        <v>255</v>
+      </c>
+      <c r="D138" t="s">
+        <v>94</v>
+      </c>
+      <c r="E138" t="s">
+        <v>74</v>
+      </c>
+      <c r="F138" t="s">
+        <v>264</v>
+      </c>
+      <c r="G138" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" t="s">
+        <v>254</v>
+      </c>
+      <c r="C139" t="s">
+        <v>255</v>
+      </c>
+      <c r="D139" t="s">
+        <v>95</v>
+      </c>
+      <c r="E139" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" t="s">
+        <v>254</v>
+      </c>
+      <c r="C140" t="s">
+        <v>255</v>
+      </c>
+      <c r="D140" t="s">
+        <v>97</v>
+      </c>
+      <c r="E140" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" t="s">
+        <v>254</v>
+      </c>
+      <c r="C141" t="s">
+        <v>255</v>
+      </c>
+      <c r="D141" t="s">
+        <v>265</v>
+      </c>
+      <c r="E141" t="s">
+        <v>80</v>
+      </c>
+      <c r="F141" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" t="s">
+        <v>254</v>
+      </c>
+      <c r="C142" t="s">
+        <v>255</v>
+      </c>
+      <c r="D142" t="s">
+        <v>100</v>
+      </c>
+      <c r="E142" t="s">
+        <v>74</v>
+      </c>
+      <c r="F142" t="s">
+        <v>64</v>
+      </c>
+      <c r="G142" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" t="s">
+        <v>254</v>
+      </c>
+      <c r="C143" t="s">
+        <v>255</v>
+      </c>
+      <c r="D143" t="s">
+        <v>108</v>
+      </c>
+      <c r="E143" t="s">
+        <v>267</v>
+      </c>
+      <c r="F143" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" t="s">
+        <v>254</v>
+      </c>
+      <c r="C144" t="s">
+        <v>255</v>
+      </c>
+      <c r="D144" t="s">
+        <v>111</v>
+      </c>
+      <c r="E144" t="s">
+        <v>127</v>
+      </c>
+      <c r="F144" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" t="s">
+        <v>254</v>
+      </c>
+      <c r="C145" t="s">
+        <v>255</v>
+      </c>
+      <c r="D145" t="s">
+        <v>118</v>
+      </c>
+      <c r="E145" t="s">
+        <v>176</v>
+      </c>
+      <c r="F145" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" t="s">
+        <v>254</v>
+      </c>
+      <c r="C146" t="s">
+        <v>255</v>
+      </c>
+      <c r="D146" t="s">
+        <v>125</v>
+      </c>
+      <c r="E146" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147" t="s">
+        <v>254</v>
+      </c>
+      <c r="C147" t="s">
+        <v>255</v>
+      </c>
+      <c r="D147" t="s">
+        <v>129</v>
+      </c>
+      <c r="E147" t="s">
+        <v>260</v>
+      </c>
+      <c r="F147" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" t="s">
+        <v>254</v>
+      </c>
+      <c r="C148" t="s">
+        <v>255</v>
+      </c>
+      <c r="D148" t="s">
+        <v>132</v>
+      </c>
+      <c r="E148" t="s">
+        <v>64</v>
+      </c>
+      <c r="F148" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" t="s">
+        <v>254</v>
+      </c>
+      <c r="C149" t="s">
+        <v>255</v>
+      </c>
+      <c r="D149" t="s">
+        <v>135</v>
+      </c>
+      <c r="E149" t="s">
+        <v>270</v>
+      </c>
+      <c r="F149" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" t="s">
+        <v>254</v>
+      </c>
+      <c r="C150" t="s">
+        <v>255</v>
+      </c>
+      <c r="D150" t="s">
+        <v>142</v>
+      </c>
+      <c r="E150" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" t="s">
+        <v>254</v>
+      </c>
+      <c r="C151" t="s">
+        <v>255</v>
+      </c>
+      <c r="D151" t="s">
+        <v>143</v>
+      </c>
+      <c r="E151" t="s">
+        <v>272</v>
+      </c>
+      <c r="F151" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" t="s">
+        <v>254</v>
+      </c>
+      <c r="C152" t="s">
+        <v>255</v>
+      </c>
+      <c r="D152" t="s">
+        <v>144</v>
+      </c>
+      <c r="E152" t="s">
+        <v>273</v>
+      </c>
+      <c r="F152" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" t="s">
+        <v>254</v>
+      </c>
+      <c r="C153" t="s">
+        <v>255</v>
+      </c>
+      <c r="D153" t="s">
+        <v>147</v>
+      </c>
+      <c r="E153" t="s">
+        <v>272</v>
+      </c>
+      <c r="F153" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" t="s">
+        <v>254</v>
+      </c>
+      <c r="C154" t="s">
+        <v>255</v>
+      </c>
+      <c r="D154" t="s">
+        <v>148</v>
+      </c>
+      <c r="E154" t="s">
+        <v>274</v>
+      </c>
+      <c r="F154" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>10</v>
+      </c>
+      <c r="B155" t="s">
+        <v>254</v>
+      </c>
+      <c r="C155" t="s">
+        <v>255</v>
+      </c>
+      <c r="D155" t="s">
+        <v>149</v>
+      </c>
+      <c r="E155" t="s">
+        <v>274</v>
+      </c>
+      <c r="F155" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" t="s">
+        <v>276</v>
+      </c>
+      <c r="C156" t="s">
+        <v>277</v>
+      </c>
+      <c r="D156" t="s">
+        <v>73</v>
+      </c>
+      <c r="E156" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>10</v>
+      </c>
+      <c r="B157" t="s">
+        <v>276</v>
+      </c>
+      <c r="C157" t="s">
+        <v>277</v>
+      </c>
+      <c r="D157" t="s">
+        <v>77</v>
+      </c>
+      <c r="E157" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" t="s">
+        <v>276</v>
+      </c>
+      <c r="C158" t="s">
+        <v>277</v>
+      </c>
+      <c r="D158" t="s">
+        <v>81</v>
+      </c>
+      <c r="E158" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" t="s">
+        <v>276</v>
+      </c>
+      <c r="C159" t="s">
+        <v>277</v>
+      </c>
+      <c r="D159" t="s">
+        <v>83</v>
+      </c>
+      <c r="E159" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" t="s">
+        <v>276</v>
+      </c>
+      <c r="C160" t="s">
+        <v>277</v>
+      </c>
+      <c r="D160" t="s">
+        <v>84</v>
+      </c>
+      <c r="E160" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" t="s">
+        <v>276</v>
+      </c>
+      <c r="C161" t="s">
+        <v>277</v>
+      </c>
+      <c r="D161" t="s">
+        <v>87</v>
+      </c>
+      <c r="E161" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162" t="s">
+        <v>276</v>
+      </c>
+      <c r="C162" t="s">
+        <v>277</v>
+      </c>
+      <c r="D162" t="s">
+        <v>88</v>
+      </c>
+      <c r="E162" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" t="s">
+        <v>276</v>
+      </c>
+      <c r="C163" t="s">
+        <v>277</v>
+      </c>
+      <c r="D163" t="s">
+        <v>89</v>
+      </c>
+      <c r="E163" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" t="s">
+        <v>276</v>
+      </c>
+      <c r="C164" t="s">
+        <v>277</v>
+      </c>
+      <c r="D164" t="s">
+        <v>91</v>
+      </c>
+      <c r="E164" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>10</v>
+      </c>
+      <c r="B165" t="s">
+        <v>276</v>
+      </c>
+      <c r="C165" t="s">
+        <v>277</v>
+      </c>
+      <c r="D165" t="s">
+        <v>94</v>
+      </c>
+      <c r="E165" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166" t="s">
+        <v>276</v>
+      </c>
+      <c r="C166" t="s">
+        <v>277</v>
+      </c>
+      <c r="D166" t="s">
+        <v>95</v>
+      </c>
+      <c r="E166" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" t="s">
+        <v>276</v>
+      </c>
+      <c r="C167" t="s">
+        <v>277</v>
+      </c>
+      <c r="D167" t="s">
+        <v>97</v>
+      </c>
+      <c r="E167" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" t="s">
+        <v>276</v>
+      </c>
+      <c r="C168" t="s">
+        <v>277</v>
+      </c>
+      <c r="D168" t="s">
+        <v>100</v>
+      </c>
+      <c r="E168" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/services/excel/probar.xlsx
+++ b/src/services/excel/probar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosdiaz/Desktop/Curso_Backend_Microservicios/src/services/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\carlosdiaz\Backend_Microservicios\src\services\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94AFB64-181F-824F-873B-8CA002CAA385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F5098B-077B-4132-B6E7-8770E55E6A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{A1446CEF-8D9A-4BFD-B001-4CA3782B6F8F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1446CEF-8D9A-4BFD-B001-4CA3782B6F8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="252">
   <si>
     <t>Department</t>
   </si>
@@ -65,9 +65,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>Docente</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>12:01</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>2022-04-06</t>
   </si>
   <si>
@@ -132,6 +126,672 @@
   </si>
   <si>
     <t>17:00</t>
+  </si>
+  <si>
+    <t>2022-04-08</t>
+  </si>
+  <si>
+    <t>10:53</t>
+  </si>
+  <si>
+    <t>2022-04-18</t>
+  </si>
+  <si>
+    <t>08:09</t>
+  </si>
+  <si>
+    <t>13:55</t>
+  </si>
+  <si>
+    <t>17:01</t>
+  </si>
+  <si>
+    <t>2022-04-19</t>
+  </si>
+  <si>
+    <t>08:04</t>
+  </si>
+  <si>
+    <t>14:05</t>
+  </si>
+  <si>
+    <t>16:47</t>
+  </si>
+  <si>
+    <t>2022-04-20</t>
+  </si>
+  <si>
+    <t>08:12</t>
+  </si>
+  <si>
+    <t>13:48</t>
+  </si>
+  <si>
+    <t>17:02</t>
+  </si>
+  <si>
+    <t>2022-04-21</t>
+  </si>
+  <si>
+    <t>08:01</t>
+  </si>
+  <si>
+    <t>11:55</t>
+  </si>
+  <si>
+    <t>16:26</t>
+  </si>
+  <si>
+    <t>2022-04-26</t>
+  </si>
+  <si>
+    <t>08:03</t>
+  </si>
+  <si>
+    <t>13:52</t>
+  </si>
+  <si>
+    <t>2022-04-27</t>
+  </si>
+  <si>
+    <t>07:50</t>
+  </si>
+  <si>
+    <t>2022-04-28</t>
+  </si>
+  <si>
+    <t>12:03</t>
+  </si>
+  <si>
+    <t>13:51</t>
+  </si>
+  <si>
+    <t>2022-04-29</t>
+  </si>
+  <si>
+    <t>08:08</t>
+  </si>
+  <si>
+    <t>11:33</t>
+  </si>
+  <si>
+    <t>2022-05-03</t>
+  </si>
+  <si>
+    <t>07:56</t>
+  </si>
+  <si>
+    <t>12:06</t>
+  </si>
+  <si>
+    <t>14:16</t>
+  </si>
+  <si>
+    <t>2022-05-04</t>
+  </si>
+  <si>
+    <t>08:02</t>
+  </si>
+  <si>
+    <t>14:08</t>
+  </si>
+  <si>
+    <t>2022-05-05</t>
+  </si>
+  <si>
+    <t>07:46</t>
+  </si>
+  <si>
+    <t>17:05</t>
+  </si>
+  <si>
+    <t>2022-05-06</t>
+  </si>
+  <si>
+    <t>12:26</t>
+  </si>
+  <si>
+    <t>2022-05-09</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>07:59</t>
+  </si>
+  <si>
+    <t>13:50</t>
+  </si>
+  <si>
+    <t>2022-05-10</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>12:05</t>
+  </si>
+  <si>
+    <t>13:59</t>
+  </si>
+  <si>
+    <t>2022-05-11</t>
+  </si>
+  <si>
+    <t>14:11</t>
+  </si>
+  <si>
+    <t>2022-05-12</t>
+  </si>
+  <si>
+    <t>2022-05-13</t>
+  </si>
+  <si>
+    <t>08:14</t>
+  </si>
+  <si>
+    <t>12:12</t>
+  </si>
+  <si>
+    <t>2022-05-14</t>
+  </si>
+  <si>
+    <t>2022-05-15</t>
+  </si>
+  <si>
+    <t>2022-05-16</t>
+  </si>
+  <si>
+    <t>17:08</t>
+  </si>
+  <si>
+    <t>2022-05-17</t>
+  </si>
+  <si>
+    <t>13:58</t>
+  </si>
+  <si>
+    <t>16:57</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
+    <t>2022-05-19</t>
+  </si>
+  <si>
+    <t>07:58</t>
+  </si>
+  <si>
+    <t>2022-05-20</t>
+  </si>
+  <si>
+    <t>2022-05-24</t>
+  </si>
+  <si>
+    <t>11:58</t>
+  </si>
+  <si>
+    <t>2022-05-25</t>
+  </si>
+  <si>
+    <t>07:47</t>
+  </si>
+  <si>
+    <t>13:57</t>
+  </si>
+  <si>
+    <t>16:38</t>
+  </si>
+  <si>
+    <t>2022-05-26</t>
+  </si>
+  <si>
+    <t>2022-05-27</t>
+  </si>
+  <si>
+    <t>08:47</t>
+  </si>
+  <si>
+    <t>11:05</t>
+  </si>
+  <si>
+    <t>2022-05-30</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>12:11</t>
+  </si>
+  <si>
+    <t>2022-06-01</t>
+  </si>
+  <si>
+    <t>08:13</t>
+  </si>
+  <si>
+    <t>17:03</t>
+  </si>
+  <si>
+    <t>2022-06-02</t>
+  </si>
+  <si>
+    <t>2022-06-03</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>11:43</t>
+  </si>
+  <si>
+    <t>2022-06-06</t>
+  </si>
+  <si>
+    <t>08:50</t>
+  </si>
+  <si>
+    <t>2022-06-07</t>
+  </si>
+  <si>
+    <t>2022-06-08</t>
+  </si>
+  <si>
+    <t>2022-06-09</t>
+  </si>
+  <si>
+    <t>2022-06-10</t>
+  </si>
+  <si>
+    <t>08:44</t>
+  </si>
+  <si>
+    <t>2022-06-13</t>
+  </si>
+  <si>
+    <t>08:11</t>
+  </si>
+  <si>
+    <t>14:14</t>
+  </si>
+  <si>
+    <t>2022-06-14</t>
+  </si>
+  <si>
+    <t>2022-06-20</t>
+  </si>
+  <si>
+    <t>07:52</t>
+  </si>
+  <si>
+    <t>13:54</t>
+  </si>
+  <si>
+    <t>2022-06-21</t>
+  </si>
+  <si>
+    <t>11:59</t>
+  </si>
+  <si>
+    <t>14:01</t>
+  </si>
+  <si>
+    <t>2022-06-22</t>
+  </si>
+  <si>
+    <t>08:21</t>
+  </si>
+  <si>
+    <t>2022-06-23</t>
+  </si>
+  <si>
+    <t>08:06</t>
+  </si>
+  <si>
+    <t>11:57</t>
+  </si>
+  <si>
+    <t>14:02</t>
+  </si>
+  <si>
+    <t>16:58</t>
+  </si>
+  <si>
+    <t>2022-06-27</t>
+  </si>
+  <si>
+    <t>2022-06-28</t>
+  </si>
+  <si>
+    <t>2022-06-29</t>
+  </si>
+  <si>
+    <t>07:57</t>
+  </si>
+  <si>
+    <t>16:54</t>
+  </si>
+  <si>
+    <t>2022-07-04</t>
+  </si>
+  <si>
+    <t>2022-07-05</t>
+  </si>
+  <si>
+    <t>2022-07-06</t>
+  </si>
+  <si>
+    <t>2022-07-07</t>
+  </si>
+  <si>
+    <t>08:10</t>
+  </si>
+  <si>
+    <t>13:42</t>
+  </si>
+  <si>
+    <t>16:36</t>
+  </si>
+  <si>
+    <t>2022-07-11</t>
+  </si>
+  <si>
+    <t>2022-07-12</t>
+  </si>
+  <si>
+    <t>2022-07-13</t>
+  </si>
+  <si>
+    <t>2022-07-14</t>
+  </si>
+  <si>
+    <t>11:54</t>
+  </si>
+  <si>
+    <t>2022-07-18</t>
+  </si>
+  <si>
+    <t>08:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0005              </t>
+  </si>
+  <si>
+    <t>Miguelina Contreras</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>13:46</t>
+  </si>
+  <si>
+    <t>17:40</t>
+  </si>
+  <si>
+    <t>07:13</t>
+  </si>
+  <si>
+    <t>12:31</t>
+  </si>
+  <si>
+    <t>17:50</t>
+  </si>
+  <si>
+    <t>07:16</t>
+  </si>
+  <si>
+    <t>13:44</t>
+  </si>
+  <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>07:11</t>
+  </si>
+  <si>
+    <t>13:41</t>
+  </si>
+  <si>
+    <t>17:36</t>
+  </si>
+  <si>
+    <t>12:07</t>
+  </si>
+  <si>
+    <t>14:06</t>
+  </si>
+  <si>
+    <t>2022-04-11</t>
+  </si>
+  <si>
+    <t>11:07</t>
+  </si>
+  <si>
+    <t>16:41</t>
+  </si>
+  <si>
+    <t>2022-04-12</t>
+  </si>
+  <si>
+    <t>07:40</t>
+  </si>
+  <si>
+    <t>11:02</t>
+  </si>
+  <si>
+    <t>07:37</t>
+  </si>
+  <si>
+    <t>12:34</t>
+  </si>
+  <si>
+    <t>17:35</t>
+  </si>
+  <si>
+    <t>07:27</t>
+  </si>
+  <si>
+    <t>12:25</t>
+  </si>
+  <si>
+    <t>13:45</t>
+  </si>
+  <si>
+    <t>07:23</t>
+  </si>
+  <si>
+    <t>17:43</t>
+  </si>
+  <si>
+    <t>12:35</t>
+  </si>
+  <si>
+    <t>2022-04-22</t>
+  </si>
+  <si>
+    <t>07:42</t>
+  </si>
+  <si>
+    <t>2022-04-25</t>
+  </si>
+  <si>
+    <t>10:35</t>
+  </si>
+  <si>
+    <t>07:26</t>
+  </si>
+  <si>
+    <t>12:13</t>
+  </si>
+  <si>
+    <t>17:29</t>
+  </si>
+  <si>
+    <t>07:09</t>
+  </si>
+  <si>
+    <t>13:08</t>
+  </si>
+  <si>
+    <t>17:46</t>
+  </si>
+  <si>
+    <t>07:19</t>
+  </si>
+  <si>
+    <t>12:22</t>
+  </si>
+  <si>
+    <t>13:49</t>
+  </si>
+  <si>
+    <t>17:42</t>
+  </si>
+  <si>
+    <t>18:03</t>
+  </si>
+  <si>
+    <t>07:25</t>
+  </si>
+  <si>
+    <t>12:16</t>
+  </si>
+  <si>
+    <t>17:39</t>
+  </si>
+  <si>
+    <t>07:18</t>
+  </si>
+  <si>
+    <t>17:49</t>
+  </si>
+  <si>
+    <t>17:47</t>
+  </si>
+  <si>
+    <t>07:10</t>
+  </si>
+  <si>
+    <t>12:39</t>
+  </si>
+  <si>
+    <t>12:40</t>
+  </si>
+  <si>
+    <t>07:14</t>
+  </si>
+  <si>
+    <t>17:22</t>
+  </si>
+  <si>
+    <t>07:12</t>
+  </si>
+  <si>
+    <t>17:26</t>
+  </si>
+  <si>
+    <t>17:45</t>
+  </si>
+  <si>
+    <t>07:30</t>
+  </si>
+  <si>
+    <t>12:56</t>
+  </si>
+  <si>
+    <t>07:41</t>
+  </si>
+  <si>
+    <t>12:41</t>
+  </si>
+  <si>
+    <t>13:43</t>
+  </si>
+  <si>
+    <t>17:55</t>
+  </si>
+  <si>
+    <t>07:17</t>
+  </si>
+  <si>
+    <t>12:45</t>
+  </si>
+  <si>
+    <t>18:07</t>
+  </si>
+  <si>
+    <t>07:21</t>
+  </si>
+  <si>
+    <t>12:20</t>
+  </si>
+  <si>
+    <t>17:58</t>
+  </si>
+  <si>
+    <t>07:15</t>
+  </si>
+  <si>
+    <t>17:51</t>
+  </si>
+  <si>
+    <t>07:06</t>
+  </si>
+  <si>
+    <t>12:29</t>
+  </si>
+  <si>
+    <t>2022-06-24</t>
+  </si>
+  <si>
+    <t>07:39</t>
+  </si>
+  <si>
+    <t>17:34</t>
+  </si>
+  <si>
+    <t>17:41</t>
+  </si>
+  <si>
+    <t>17:38</t>
+  </si>
+  <si>
+    <t>17:28</t>
+  </si>
+  <si>
+    <t>12:27</t>
+  </si>
+  <si>
+    <t>17:14</t>
+  </si>
+  <si>
+    <t>07:55</t>
+  </si>
+  <si>
+    <t>12:21</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>16:56</t>
+  </si>
+  <si>
+    <t>12:19</t>
+  </si>
+  <si>
+    <t>2022-07-15</t>
+  </si>
+  <si>
+    <t>12:14</t>
+  </si>
+  <si>
+    <t>13:26</t>
+  </si>
+  <si>
+    <t>17:12</t>
   </si>
 </sst>
 </file>
@@ -173,7 +833,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -489,158 +1150,3068 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6E4B80-30B3-4440-8006-97A1477254AA}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E63" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H107" s="1"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H113" s="1"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H114" s="1"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H115" s="1"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
+      <c r="F119" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H122" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>